--- a/Code/Results/Cases/Case_1_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9915415156804473</v>
+        <v>1.027438755998537</v>
       </c>
       <c r="D2">
-        <v>1.02479884873461</v>
+        <v>1.032276575641003</v>
       </c>
       <c r="E2">
-        <v>0.9990183685181269</v>
+        <v>1.027518295290458</v>
       </c>
       <c r="F2">
-        <v>0.9999615029509965</v>
+        <v>1.03795793616981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040986653181486</v>
+        <v>1.034642685647126</v>
       </c>
       <c r="J2">
-        <v>1.013978195816682</v>
+        <v>1.032596626213845</v>
       </c>
       <c r="K2">
-        <v>1.035923177743992</v>
+        <v>1.03508227233661</v>
       </c>
       <c r="L2">
-        <v>1.010491395988171</v>
+        <v>1.030337790339339</v>
       </c>
       <c r="M2">
-        <v>1.011421374124543</v>
+        <v>1.040747337688945</v>
       </c>
       <c r="N2">
-        <v>1.008259710225728</v>
+        <v>1.014821978095935</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9968536158108392</v>
+        <v>1.028535683675962</v>
       </c>
       <c r="D3">
-        <v>1.027345573444925</v>
+        <v>1.032806439804623</v>
       </c>
       <c r="E3">
-        <v>1.003315606166906</v>
+        <v>1.028454351913477</v>
       </c>
       <c r="F3">
-        <v>1.005850965259667</v>
+        <v>1.039245160370384</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042365995476525</v>
+        <v>1.034871073262916</v>
       </c>
       <c r="J3">
-        <v>1.017430423487927</v>
+        <v>1.033332981854826</v>
       </c>
       <c r="K3">
-        <v>1.037640121435406</v>
+        <v>1.035421621698634</v>
       </c>
       <c r="L3">
-        <v>1.013906238252435</v>
+        <v>1.031081242145633</v>
       </c>
       <c r="M3">
-        <v>1.016409525309962</v>
+        <v>1.041843214701677</v>
       </c>
       <c r="N3">
-        <v>1.009449063505515</v>
+        <v>1.015071526364898</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000209838712664</v>
+        <v>1.029245378401928</v>
       </c>
       <c r="D4">
-        <v>1.02896136672618</v>
+        <v>1.033149408415588</v>
       </c>
       <c r="E4">
-        <v>1.006036876124478</v>
+        <v>1.029060308299605</v>
       </c>
       <c r="F4">
-        <v>1.009575063215076</v>
+        <v>1.040078280243672</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043228675213317</v>
+        <v>1.035017657864211</v>
       </c>
       <c r="J4">
-        <v>1.019608178317251</v>
+        <v>1.033808832603767</v>
       </c>
       <c r="K4">
-        <v>1.038722380714504</v>
+        <v>1.035640603406677</v>
       </c>
       <c r="L4">
-        <v>1.016062983335391</v>
+        <v>1.031561950383285</v>
       </c>
       <c r="M4">
-        <v>1.019559283099619</v>
+        <v>1.042551974951399</v>
       </c>
       <c r="N4">
-        <v>1.010198752974651</v>
+        <v>1.0152326484628</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001602210780277</v>
+        <v>1.029543713293554</v>
       </c>
       <c r="D5">
-        <v>1.029633201102969</v>
+        <v>1.033293617897597</v>
       </c>
       <c r="E5">
-        <v>1.007167269760107</v>
+        <v>1.02931511598466</v>
       </c>
       <c r="F5">
-        <v>1.011120816642293</v>
+        <v>1.040428573349856</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043584407481004</v>
+        <v>1.035078995260182</v>
       </c>
       <c r="J5">
-        <v>1.020510795412511</v>
+        <v>1.034008732060632</v>
       </c>
       <c r="K5">
-        <v>1.039170691094024</v>
+        <v>1.035732519122288</v>
       </c>
       <c r="L5">
-        <v>1.016957505182888</v>
+        <v>1.031763955428717</v>
       </c>
       <c r="M5">
-        <v>1.020865569210397</v>
+        <v>1.042849856424026</v>
       </c>
       <c r="N5">
-        <v>1.01050932848336</v>
+        <v>1.015300299862757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001834929368026</v>
+        <v>1.029593803844919</v>
       </c>
       <c r="D6">
-        <v>1.029745575236835</v>
+        <v>1.033317832765773</v>
       </c>
       <c r="E6">
-        <v>1.007356284757217</v>
+        <v>1.029357903050991</v>
       </c>
       <c r="F6">
-        <v>1.011379216617923</v>
+        <v>1.040487392056394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043643735416224</v>
+        <v>1.0350892772597</v>
       </c>
       <c r="J6">
-        <v>1.020661605982074</v>
+        <v>1.034042287379461</v>
       </c>
       <c r="K6">
-        <v>1.039245578864121</v>
+        <v>1.035747943703756</v>
       </c>
       <c r="L6">
-        <v>1.017106999082554</v>
+        <v>1.031797868004985</v>
       </c>
       <c r="M6">
-        <v>1.021083874142791</v>
+        <v>1.042899867304188</v>
       </c>
       <c r="N6">
-        <v>1.010561210852021</v>
+        <v>1.015311653885784</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000228515627968</v>
+        <v>1.029249364847742</v>
       </c>
       <c r="D7">
-        <v>1.028970372753754</v>
+        <v>1.033151335251045</v>
       </c>
       <c r="E7">
-        <v>1.006052033312405</v>
+        <v>1.029063712802205</v>
       </c>
       <c r="F7">
-        <v>1.009595794501688</v>
+        <v>1.040082960680633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043233455522768</v>
+        <v>1.03501847858443</v>
       </c>
       <c r="J7">
-        <v>1.019620289208093</v>
+        <v>1.033811504251946</v>
       </c>
       <c r="K7">
-        <v>1.038728397012515</v>
+        <v>1.035641832156248</v>
       </c>
       <c r="L7">
-        <v>1.01607498319115</v>
+        <v>1.031564649917095</v>
       </c>
       <c r="M7">
-        <v>1.019576806987173</v>
+        <v>1.042555955576103</v>
       </c>
       <c r="N7">
-        <v>1.010202920732628</v>
+        <v>1.015233552755458</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.993354060424996</v>
+        <v>1.027809487236024</v>
       </c>
       <c r="D8">
-        <v>1.025666324306646</v>
+        <v>1.032455622052681</v>
       </c>
       <c r="E8">
-        <v>1.000483282400451</v>
+        <v>1.027834585191538</v>
       </c>
       <c r="F8">
-        <v>1.001970413185732</v>
+        <v>1.038392919275826</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041459117205623</v>
+        <v>1.034720118194936</v>
       </c>
       <c r="J8">
-        <v>1.015156819569646</v>
+        <v>1.032845609772075</v>
       </c>
       <c r="K8">
-        <v>1.036509499770876</v>
+        <v>1.035197080952014</v>
       </c>
       <c r="L8">
-        <v>1.011656711296003</v>
+        <v>1.030589116966152</v>
       </c>
       <c r="M8">
-        <v>1.013123759962861</v>
+        <v>1.041117766807599</v>
       </c>
       <c r="N8">
-        <v>1.008665884569509</v>
+        <v>1.014906387061784</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9805798122268622</v>
+        <v>1.025271499318657</v>
       </c>
       <c r="D9">
-        <v>1.019586657596365</v>
+        <v>1.031230585870206</v>
       </c>
       <c r="E9">
-        <v>0.9901882841130943</v>
+        <v>1.025670729188179</v>
       </c>
       <c r="F9">
-        <v>0.9878244971161045</v>
+        <v>1.035416304174149</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038093904692518</v>
+        <v>1.034185201992948</v>
       </c>
       <c r="J9">
-        <v>1.006837491250169</v>
+        <v>1.031138810194623</v>
       </c>
       <c r="K9">
-        <v>1.032369751434318</v>
+        <v>1.034408800991175</v>
       </c>
       <c r="L9">
-        <v>1.003442581044165</v>
+        <v>1.028867374695085</v>
       </c>
       <c r="M9">
-        <v>1.001118251247813</v>
+        <v>1.038580787219087</v>
       </c>
       <c r="N9">
-        <v>1.005796766087583</v>
+        <v>1.014327180014466</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.971559146073518</v>
+        <v>1.02357894609643</v>
       </c>
       <c r="D10">
-        <v>1.015342926146826</v>
+        <v>1.030414564591519</v>
       </c>
       <c r="E10">
-        <v>0.9829587732318524</v>
+        <v>1.024229506680822</v>
       </c>
       <c r="F10">
-        <v>0.9778496544326412</v>
+        <v>1.033432762930697</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035674821180889</v>
+        <v>1.03382243202435</v>
       </c>
       <c r="J10">
-        <v>1.00094844770686</v>
+        <v>1.029997710371601</v>
       </c>
       <c r="K10">
-        <v>1.029440577007906</v>
+        <v>1.033880238689525</v>
       </c>
       <c r="L10">
-        <v>0.9976426833144219</v>
+        <v>1.027717693789551</v>
       </c>
       <c r="M10">
-        <v>0.9926306982199713</v>
+        <v>1.036887559086627</v>
       </c>
       <c r="N10">
-        <v>1.003763492579688</v>
+        <v>1.013939224769683</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.967518391441022</v>
+        <v>1.022845903678404</v>
       </c>
       <c r="D11">
-        <v>1.013455819888759</v>
+        <v>1.030061390572328</v>
       </c>
       <c r="E11">
-        <v>0.9797310362429749</v>
+        <v>1.023605757475677</v>
       </c>
       <c r="F11">
-        <v>0.9733844878586458</v>
+        <v>1.032574048828574</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034581901548707</v>
+        <v>1.033663888254134</v>
       </c>
       <c r="J11">
-        <v>0.998307781650855</v>
+        <v>1.029502828023777</v>
       </c>
       <c r="K11">
-        <v>1.028128363511093</v>
+        <v>1.033650650065717</v>
       </c>
       <c r="L11">
-        <v>0.995045593123956</v>
+        <v>1.027219425010816</v>
       </c>
       <c r="M11">
-        <v>0.9888264155977498</v>
+        <v>1.036153899594326</v>
       </c>
       <c r="N11">
-        <v>1.00285136234043</v>
+        <v>1.013770803996624</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9659958108914067</v>
+        <v>1.022573594293452</v>
       </c>
       <c r="D12">
-        <v>1.012747018016648</v>
+        <v>1.029930232398339</v>
       </c>
       <c r="E12">
-        <v>0.9785165104207617</v>
+        <v>1.023374115349268</v>
       </c>
       <c r="F12">
-        <v>0.9717023974956853</v>
+        <v>1.032255107826408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034168759632415</v>
+        <v>1.033604778373731</v>
       </c>
       <c r="J12">
-        <v>0.9973124186764327</v>
+        <v>1.029318889048072</v>
       </c>
       <c r="K12">
-        <v>1.027634013244741</v>
+        <v>1.033565263273672</v>
       </c>
       <c r="L12">
-        <v>0.9940672081282521</v>
+        <v>1.027034277783571</v>
       </c>
       <c r="M12">
-        <v>0.987392585345922</v>
+        <v>1.035881311744173</v>
       </c>
       <c r="N12">
-        <v>1.002507499133921</v>
+        <v>1.013708179767233</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9663234141932461</v>
+        <v>1.022632006725287</v>
       </c>
       <c r="D13">
-        <v>1.012899420350308</v>
+        <v>1.029958365061205</v>
       </c>
       <c r="E13">
-        <v>0.9787777530030464</v>
+        <v>1.023423801292347</v>
       </c>
       <c r="F13">
-        <v>0.9720643035667623</v>
+        <v>1.032323520719898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034257711086104</v>
+        <v>1.033617467584348</v>
       </c>
       <c r="J13">
-        <v>0.9975265986666252</v>
+        <v>1.029358349916739</v>
       </c>
       <c r="K13">
-        <v>1.027740372802194</v>
+        <v>1.033583583881015</v>
       </c>
       <c r="L13">
-        <v>0.9942777096812455</v>
+        <v>1.027073995578401</v>
       </c>
       <c r="M13">
-        <v>0.9877011088942643</v>
+        <v>1.035939786143984</v>
       </c>
       <c r="N13">
-        <v>1.002581492823346</v>
+        <v>1.013721615831795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.967392985083142</v>
+        <v>1.022823395013547</v>
       </c>
       <c r="D14">
-        <v>1.013397392626054</v>
+        <v>1.0300505484525</v>
       </c>
       <c r="E14">
-        <v>0.9796309673891705</v>
+        <v>1.02358660892725</v>
       </c>
       <c r="F14">
-        <v>0.9732459354774482</v>
+        <v>1.032547684596378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03454789981043</v>
+        <v>1.033659006694192</v>
       </c>
       <c r="J14">
-        <v>0.9982258058452715</v>
+        <v>1.029487625974263</v>
       </c>
       <c r="K14">
-        <v>1.028087643959632</v>
+        <v>1.033643594154177</v>
       </c>
       <c r="L14">
-        <v>0.9949650042938646</v>
+        <v>1.027204122073726</v>
       </c>
       <c r="M14">
-        <v>0.9887083263085341</v>
+        <v>1.036131368918891</v>
       </c>
       <c r="N14">
-        <v>1.002823043462069</v>
+        <v>1.013765628790136</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9680490675673264</v>
+        <v>1.022941312327472</v>
       </c>
       <c r="D15">
-        <v>1.013703157390733</v>
+        <v>1.030107349209566</v>
       </c>
       <c r="E15">
-        <v>0.9801545628848457</v>
+        <v>1.023686926180606</v>
       </c>
       <c r="F15">
-        <v>0.9739708098760588</v>
+        <v>1.03268580242568</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034725731665881</v>
+        <v>1.033684571202409</v>
       </c>
       <c r="J15">
-        <v>0.9986546611366285</v>
+        <v>1.029567261612055</v>
       </c>
       <c r="K15">
-        <v>1.028300679263647</v>
+        <v>1.03368055425237</v>
       </c>
       <c r="L15">
-        <v>0.9953866262120089</v>
+        <v>1.027284288274062</v>
       </c>
       <c r="M15">
-        <v>0.9893261140049214</v>
+        <v>1.036249399521927</v>
       </c>
       <c r="N15">
-        <v>1.002971191395985</v>
+        <v>1.013792737976006</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9718243604106566</v>
+        <v>1.023627592307575</v>
       </c>
       <c r="D16">
-        <v>1.015467089701702</v>
+        <v>1.030438007230005</v>
       </c>
       <c r="E16">
-        <v>0.9831708555281994</v>
+        <v>1.024270909349456</v>
       </c>
       <c r="F16">
-        <v>0.978142784145515</v>
+        <v>1.03348975639724</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035746367611927</v>
+        <v>1.033832923248384</v>
       </c>
       <c r="J16">
-        <v>1.001121716384316</v>
+        <v>1.03003053762262</v>
       </c>
       <c r="K16">
-        <v>1.029526711325813</v>
+        <v>1.033895460649924</v>
       </c>
       <c r="L16">
-        <v>0.9978131685212165</v>
+        <v>1.027750752736747</v>
       </c>
       <c r="M16">
-        <v>0.9928803430193893</v>
+        <v>1.036936239368373</v>
       </c>
       <c r="N16">
-        <v>1.003823335129823</v>
+        <v>1.013950393156813</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9741554638309227</v>
+        <v>1.024058034934453</v>
       </c>
       <c r="D17">
-        <v>1.016560019527934</v>
+        <v>1.030645466150968</v>
       </c>
       <c r="E17">
-        <v>0.9850361777171686</v>
+        <v>1.024637309169413</v>
       </c>
       <c r="F17">
-        <v>0.9807195866048546</v>
+        <v>1.033994100042937</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03637417835558</v>
+        <v>1.033925589140774</v>
       </c>
       <c r="J17">
-        <v>1.00264436312334</v>
+        <v>1.030320929506277</v>
       </c>
       <c r="K17">
-        <v>1.030283790830141</v>
+        <v>1.034030073947544</v>
       </c>
       <c r="L17">
-        <v>0.9993117645639235</v>
+        <v>1.028043232907768</v>
       </c>
       <c r="M17">
-        <v>0.9950743329347458</v>
+        <v>1.037366945897422</v>
       </c>
       <c r="N17">
-        <v>1.004349173867664</v>
+        <v>1.014049169922451</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9755022584901435</v>
+        <v>1.024309089907024</v>
       </c>
       <c r="D18">
-        <v>1.017192755840287</v>
+        <v>1.030766489624822</v>
       </c>
       <c r="E18">
-        <v>0.98611487016494</v>
+        <v>1.024851053890691</v>
       </c>
       <c r="F18">
-        <v>0.9822086208943799</v>
+        <v>1.034288291938128</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036736011063453</v>
+        <v>1.033979498529485</v>
       </c>
       <c r="J18">
-        <v>1.003523812213442</v>
+        <v>1.030490235100457</v>
       </c>
       <c r="K18">
-        <v>1.030721175396688</v>
+        <v>1.034108522331875</v>
       </c>
       <c r="L18">
-        <v>1.000177662079306</v>
+        <v>1.028213788320552</v>
       </c>
       <c r="M18">
-        <v>0.9963416900067833</v>
+        <v>1.037618123488371</v>
       </c>
       <c r="N18">
-        <v>1.00465284838418</v>
+        <v>1.014106742911021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9759593338822399</v>
+        <v>1.024394690675125</v>
       </c>
       <c r="D19">
-        <v>1.01740770839592</v>
+        <v>1.030807758216657</v>
       </c>
       <c r="E19">
-        <v>0.9864811242271068</v>
+        <v>1.024923940402183</v>
       </c>
       <c r="F19">
-        <v>0.9827140194199853</v>
+        <v>1.03438860668608</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036858657655996</v>
+        <v>1.033997856312483</v>
       </c>
       <c r="J19">
-        <v>1.003822233933989</v>
+        <v>1.030547951218308</v>
       </c>
       <c r="K19">
-        <v>1.030869608656094</v>
+        <v>1.034135259439231</v>
       </c>
       <c r="L19">
-        <v>1.000471542656804</v>
+        <v>1.028271935975853</v>
       </c>
       <c r="M19">
-        <v>0.99677176856882</v>
+        <v>1.037703760769031</v>
       </c>
       <c r="N19">
-        <v>1.004755886678934</v>
+        <v>1.014126366721021</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.97390670249972</v>
+        <v>1.02401185406834</v>
       </c>
       <c r="D20">
-        <v>1.016443252744321</v>
+        <v>1.030623206089314</v>
       </c>
       <c r="E20">
-        <v>0.9848370169589491</v>
+        <v>1.02459799484595</v>
       </c>
       <c r="F20">
-        <v>0.9804445762243287</v>
+        <v>1.033939987023142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036307273514327</v>
+        <v>1.033915661557933</v>
       </c>
       <c r="J20">
-        <v>1.002481901972412</v>
+        <v>1.030289780975756</v>
       </c>
       <c r="K20">
-        <v>1.030203000929506</v>
+        <v>1.034015638376676</v>
       </c>
       <c r="L20">
-        <v>0.9991518342014352</v>
+        <v>1.028011857037998</v>
       </c>
       <c r="M20">
-        <v>0.994840226419324</v>
+        <v>1.037320739959015</v>
       </c>
       <c r="N20">
-        <v>1.004293072652089</v>
+        <v>1.014038576437509</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9670786332232448</v>
+        <v>1.022767036628513</v>
       </c>
       <c r="D21">
-        <v>1.013250972217439</v>
+        <v>1.030023402004677</v>
       </c>
       <c r="E21">
-        <v>0.9793801559881093</v>
+        <v>1.023538664867433</v>
       </c>
       <c r="F21">
-        <v>0.9728986374003684</v>
+        <v>1.032481673287076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034462647767481</v>
+        <v>1.033646780525663</v>
       </c>
       <c r="J21">
-        <v>0.9980203145533798</v>
+        <v>1.029449560650131</v>
       </c>
       <c r="K21">
-        <v>1.027985575651566</v>
+        <v>1.033625925584245</v>
       </c>
       <c r="L21">
-        <v>0.9947629987131411</v>
+        <v>1.027165804945861</v>
       </c>
       <c r="M21">
-        <v>0.98841231018764</v>
+        <v>1.03607495462575</v>
       </c>
       <c r="N21">
-        <v>1.002752054920078</v>
+        <v>1.013752669873181</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9626594092691997</v>
+        <v>1.021984226363776</v>
       </c>
       <c r="D22">
-        <v>1.011198235452839</v>
+        <v>1.029646434523774</v>
       </c>
       <c r="E22">
-        <v>0.9758583989196169</v>
+        <v>1.022872888579524</v>
       </c>
       <c r="F22">
-        <v>0.9680171733117892</v>
+        <v>1.031564909277869</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033261099808967</v>
+        <v>1.033476453425046</v>
       </c>
       <c r="J22">
-        <v>0.9951307370945173</v>
+        <v>1.028920599841848</v>
       </c>
       <c r="K22">
-        <v>1.026551070046448</v>
+        <v>1.033380276790101</v>
       </c>
       <c r="L22">
-        <v>0.9919237708568547</v>
+        <v>1.026633464635589</v>
       </c>
       <c r="M22">
-        <v>0.9842500043645847</v>
+        <v>1.035291250600779</v>
       </c>
       <c r="N22">
-        <v>1.00175372975901</v>
+        <v>1.013572531464187</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9650145901868924</v>
+        <v>1.022399223026378</v>
       </c>
       <c r="D23">
-        <v>1.012290898431496</v>
+        <v>1.029846257250671</v>
       </c>
       <c r="E23">
-        <v>0.9777343079212951</v>
+        <v>1.023225804065692</v>
       </c>
       <c r="F23">
-        <v>0.9706184917794877</v>
+        <v>1.032050891110472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033902148824118</v>
+        <v>1.033566867519242</v>
       </c>
       <c r="J23">
-        <v>0.9966708722312931</v>
+        <v>1.029201076741743</v>
       </c>
       <c r="K23">
-        <v>1.027315474388994</v>
+        <v>1.033510558562943</v>
       </c>
       <c r="L23">
-        <v>0.9934367618701194</v>
+        <v>1.026915705801908</v>
       </c>
       <c r="M23">
-        <v>0.9864684591664584</v>
+        <v>1.03570674824871</v>
       </c>
       <c r="N23">
-        <v>1.002285855231564</v>
+        <v>1.01366806207386</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9740191467929858</v>
+        <v>1.024032721259619</v>
       </c>
       <c r="D24">
-        <v>1.016496029280974</v>
+        <v>1.030633264403055</v>
       </c>
       <c r="E24">
-        <v>0.9849270378574834</v>
+        <v>1.024615759203843</v>
       </c>
       <c r="F24">
-        <v>0.980568884634455</v>
+        <v>1.033964438315073</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036337518375576</v>
+        <v>1.033920147841074</v>
       </c>
       <c r="J24">
-        <v>1.002555337947845</v>
+        <v>1.030303855887657</v>
       </c>
       <c r="K24">
-        <v>1.03023951938393</v>
+        <v>1.034022161403837</v>
       </c>
       <c r="L24">
-        <v>0.9992241251524354</v>
+        <v>1.028026034576632</v>
       </c>
       <c r="M24">
-        <v>0.9949460471733439</v>
+        <v>1.037341618576026</v>
       </c>
       <c r="N24">
-        <v>1.004318431744279</v>
+        <v>1.014043363306536</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9839664533011491</v>
+        <v>1.025927724264322</v>
       </c>
       <c r="D25">
-        <v>1.021190632752365</v>
+        <v>1.031547173799682</v>
       </c>
       <c r="E25">
-        <v>0.9929110446463201</v>
+        <v>1.026229899273417</v>
       </c>
       <c r="F25">
-        <v>0.9915721838072203</v>
+        <v>1.036185669425935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038993656197927</v>
+        <v>1.034324576556522</v>
       </c>
       <c r="J25">
-        <v>1.009045726276079</v>
+        <v>1.031580626776469</v>
       </c>
       <c r="K25">
-        <v>1.033468662296137</v>
+        <v>1.03461312876387</v>
       </c>
       <c r="L25">
-        <v>1.005620413426985</v>
+        <v>1.029312811553763</v>
       </c>
       <c r="M25">
-        <v>1.004302754991687</v>
+        <v>1.03923698715324</v>
       </c>
       <c r="N25">
-        <v>1.006558766565413</v>
+        <v>1.014477239036516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027438755998537</v>
+        <v>0.9915415156804472</v>
       </c>
       <c r="D2">
-        <v>1.032276575641003</v>
+        <v>1.02479884873461</v>
       </c>
       <c r="E2">
-        <v>1.027518295290458</v>
+        <v>0.9990183685181268</v>
       </c>
       <c r="F2">
-        <v>1.03795793616981</v>
+        <v>0.9999615029509962</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034642685647126</v>
+        <v>1.040986653181486</v>
       </c>
       <c r="J2">
-        <v>1.032596626213845</v>
+        <v>1.013978195816681</v>
       </c>
       <c r="K2">
-        <v>1.03508227233661</v>
+        <v>1.035923177743992</v>
       </c>
       <c r="L2">
-        <v>1.030337790339339</v>
+        <v>1.010491395988171</v>
       </c>
       <c r="M2">
-        <v>1.040747337688945</v>
+        <v>1.011421374124543</v>
       </c>
       <c r="N2">
-        <v>1.014821978095935</v>
+        <v>1.008259710225728</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028535683675962</v>
+        <v>0.9968536158108388</v>
       </c>
       <c r="D3">
-        <v>1.032806439804623</v>
+        <v>1.027345573444925</v>
       </c>
       <c r="E3">
-        <v>1.028454351913477</v>
+        <v>1.003315606166906</v>
       </c>
       <c r="F3">
-        <v>1.039245160370384</v>
+        <v>1.005850965259666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034871073262916</v>
+        <v>1.042365995476525</v>
       </c>
       <c r="J3">
-        <v>1.033332981854826</v>
+        <v>1.017430423487927</v>
       </c>
       <c r="K3">
-        <v>1.035421621698634</v>
+        <v>1.037640121435406</v>
       </c>
       <c r="L3">
-        <v>1.031081242145633</v>
+        <v>1.013906238252435</v>
       </c>
       <c r="M3">
-        <v>1.041843214701677</v>
+        <v>1.016409525309962</v>
       </c>
       <c r="N3">
-        <v>1.015071526364898</v>
+        <v>1.009449063505515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029245378401928</v>
+        <v>1.000209838712664</v>
       </c>
       <c r="D4">
-        <v>1.033149408415588</v>
+        <v>1.02896136672618</v>
       </c>
       <c r="E4">
-        <v>1.029060308299605</v>
+        <v>1.006036876124478</v>
       </c>
       <c r="F4">
-        <v>1.040078280243672</v>
+        <v>1.009575063215076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035017657864211</v>
+        <v>1.043228675213317</v>
       </c>
       <c r="J4">
-        <v>1.033808832603767</v>
+        <v>1.019608178317251</v>
       </c>
       <c r="K4">
-        <v>1.035640603406677</v>
+        <v>1.038722380714504</v>
       </c>
       <c r="L4">
-        <v>1.031561950383285</v>
+        <v>1.01606298333539</v>
       </c>
       <c r="M4">
-        <v>1.042551974951399</v>
+        <v>1.019559283099619</v>
       </c>
       <c r="N4">
-        <v>1.0152326484628</v>
+        <v>1.010198752974651</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029543713293554</v>
+        <v>1.001602210780277</v>
       </c>
       <c r="D5">
-        <v>1.033293617897597</v>
+        <v>1.029633201102969</v>
       </c>
       <c r="E5">
-        <v>1.02931511598466</v>
+        <v>1.007167269760106</v>
       </c>
       <c r="F5">
-        <v>1.040428573349856</v>
+        <v>1.011120816642293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035078995260182</v>
+        <v>1.043584407481004</v>
       </c>
       <c r="J5">
-        <v>1.034008732060632</v>
+        <v>1.020510795412511</v>
       </c>
       <c r="K5">
-        <v>1.035732519122288</v>
+        <v>1.039170691094024</v>
       </c>
       <c r="L5">
-        <v>1.031763955428717</v>
+        <v>1.016957505182888</v>
       </c>
       <c r="M5">
-        <v>1.042849856424026</v>
+        <v>1.020865569210397</v>
       </c>
       <c r="N5">
-        <v>1.015300299862757</v>
+        <v>1.01050932848336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029593803844919</v>
+        <v>1.001834929368025</v>
       </c>
       <c r="D6">
-        <v>1.033317832765773</v>
+        <v>1.029745575236834</v>
       </c>
       <c r="E6">
-        <v>1.029357903050991</v>
+        <v>1.007356284757216</v>
       </c>
       <c r="F6">
-        <v>1.040487392056394</v>
+        <v>1.011379216617922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0350892772597</v>
+        <v>1.043643735416223</v>
       </c>
       <c r="J6">
-        <v>1.034042287379461</v>
+        <v>1.020661605982073</v>
       </c>
       <c r="K6">
-        <v>1.035747943703756</v>
+        <v>1.039245578864121</v>
       </c>
       <c r="L6">
-        <v>1.031797868004985</v>
+        <v>1.017106999082553</v>
       </c>
       <c r="M6">
-        <v>1.042899867304188</v>
+        <v>1.021083874142791</v>
       </c>
       <c r="N6">
-        <v>1.015311653885784</v>
+        <v>1.010561210852021</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029249364847742</v>
+        <v>1.000228515627968</v>
       </c>
       <c r="D7">
-        <v>1.033151335251045</v>
+        <v>1.028970372753754</v>
       </c>
       <c r="E7">
-        <v>1.029063712802205</v>
+        <v>1.006052033312405</v>
       </c>
       <c r="F7">
-        <v>1.040082960680633</v>
+        <v>1.009595794501688</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03501847858443</v>
+        <v>1.043233455522768</v>
       </c>
       <c r="J7">
-        <v>1.033811504251946</v>
+        <v>1.019620289208093</v>
       </c>
       <c r="K7">
-        <v>1.035641832156248</v>
+        <v>1.038728397012515</v>
       </c>
       <c r="L7">
-        <v>1.031564649917095</v>
+        <v>1.01607498319115</v>
       </c>
       <c r="M7">
-        <v>1.042555955576103</v>
+        <v>1.019576806987173</v>
       </c>
       <c r="N7">
-        <v>1.015233552755458</v>
+        <v>1.010202920732628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027809487236024</v>
+        <v>0.9933540604249963</v>
       </c>
       <c r="D8">
-        <v>1.032455622052681</v>
+        <v>1.025666324306646</v>
       </c>
       <c r="E8">
-        <v>1.027834585191538</v>
+        <v>1.000483282400452</v>
       </c>
       <c r="F8">
-        <v>1.038392919275826</v>
+        <v>1.001970413185733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034720118194936</v>
+        <v>1.041459117205623</v>
       </c>
       <c r="J8">
-        <v>1.032845609772075</v>
+        <v>1.015156819569646</v>
       </c>
       <c r="K8">
-        <v>1.035197080952014</v>
+        <v>1.036509499770876</v>
       </c>
       <c r="L8">
-        <v>1.030589116966152</v>
+        <v>1.011656711296003</v>
       </c>
       <c r="M8">
-        <v>1.041117766807599</v>
+        <v>1.013123759962861</v>
       </c>
       <c r="N8">
-        <v>1.014906387061784</v>
+        <v>1.008665884569509</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025271499318657</v>
+        <v>0.9805798122268626</v>
       </c>
       <c r="D9">
-        <v>1.031230585870206</v>
+        <v>1.019586657596365</v>
       </c>
       <c r="E9">
-        <v>1.025670729188179</v>
+        <v>0.9901882841130948</v>
       </c>
       <c r="F9">
-        <v>1.035416304174149</v>
+        <v>0.987824497116105</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034185201992948</v>
+        <v>1.038093904692518</v>
       </c>
       <c r="J9">
-        <v>1.031138810194623</v>
+        <v>1.00683749125017</v>
       </c>
       <c r="K9">
-        <v>1.034408800991175</v>
+        <v>1.032369751434318</v>
       </c>
       <c r="L9">
-        <v>1.028867374695085</v>
+        <v>1.003442581044166</v>
       </c>
       <c r="M9">
-        <v>1.038580787219087</v>
+        <v>1.001118251247814</v>
       </c>
       <c r="N9">
-        <v>1.014327180014466</v>
+        <v>1.005796766087583</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02357894609643</v>
+        <v>0.9715591460735176</v>
       </c>
       <c r="D10">
-        <v>1.030414564591519</v>
+        <v>1.015342926146826</v>
       </c>
       <c r="E10">
-        <v>1.024229506680822</v>
+        <v>0.982958773231852</v>
       </c>
       <c r="F10">
-        <v>1.033432762930697</v>
+        <v>0.977849654432641</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03382243202435</v>
+        <v>1.035674821180889</v>
       </c>
       <c r="J10">
-        <v>1.029997710371601</v>
+        <v>1.00094844770686</v>
       </c>
       <c r="K10">
-        <v>1.033880238689525</v>
+        <v>1.029440577007906</v>
       </c>
       <c r="L10">
-        <v>1.027717693789551</v>
+        <v>0.9976426833144213</v>
       </c>
       <c r="M10">
-        <v>1.036887559086627</v>
+        <v>0.9926306982199711</v>
       </c>
       <c r="N10">
-        <v>1.013939224769683</v>
+        <v>1.003763492579688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022845903678404</v>
+        <v>0.967518391441022</v>
       </c>
       <c r="D11">
-        <v>1.030061390572328</v>
+        <v>1.013455819888759</v>
       </c>
       <c r="E11">
-        <v>1.023605757475677</v>
+        <v>0.9797310362429748</v>
       </c>
       <c r="F11">
-        <v>1.032574048828574</v>
+        <v>0.9733844878586458</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033663888254134</v>
+        <v>1.034581901548707</v>
       </c>
       <c r="J11">
-        <v>1.029502828023777</v>
+        <v>0.9983077816508549</v>
       </c>
       <c r="K11">
-        <v>1.033650650065717</v>
+        <v>1.028128363511093</v>
       </c>
       <c r="L11">
-        <v>1.027219425010816</v>
+        <v>0.9950455931239559</v>
       </c>
       <c r="M11">
-        <v>1.036153899594326</v>
+        <v>0.9888264155977498</v>
       </c>
       <c r="N11">
-        <v>1.013770803996624</v>
+        <v>1.00285136234043</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022573594293452</v>
+        <v>0.9659958108914072</v>
       </c>
       <c r="D12">
-        <v>1.029930232398339</v>
+        <v>1.012747018016648</v>
       </c>
       <c r="E12">
-        <v>1.023374115349268</v>
+        <v>0.9785165104207619</v>
       </c>
       <c r="F12">
-        <v>1.032255107826408</v>
+        <v>0.9717023974956853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033604778373731</v>
+        <v>1.034168759632415</v>
       </c>
       <c r="J12">
-        <v>1.029318889048072</v>
+        <v>0.9973124186764329</v>
       </c>
       <c r="K12">
-        <v>1.033565263273672</v>
+        <v>1.027634013244741</v>
       </c>
       <c r="L12">
-        <v>1.027034277783571</v>
+        <v>0.9940672081282524</v>
       </c>
       <c r="M12">
-        <v>1.035881311744173</v>
+        <v>0.987392585345922</v>
       </c>
       <c r="N12">
-        <v>1.013708179767233</v>
+        <v>1.002507499133921</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022632006725287</v>
+        <v>0.966323414193246</v>
       </c>
       <c r="D13">
-        <v>1.029958365061205</v>
+        <v>1.012899420350308</v>
       </c>
       <c r="E13">
-        <v>1.023423801292347</v>
+        <v>0.9787777530030464</v>
       </c>
       <c r="F13">
-        <v>1.032323520719898</v>
+        <v>0.9720643035667621</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033617467584348</v>
+        <v>1.034257711086104</v>
       </c>
       <c r="J13">
-        <v>1.029358349916739</v>
+        <v>0.9975265986666252</v>
       </c>
       <c r="K13">
-        <v>1.033583583881015</v>
+        <v>1.027740372802194</v>
       </c>
       <c r="L13">
-        <v>1.027073995578401</v>
+        <v>0.9942777096812455</v>
       </c>
       <c r="M13">
-        <v>1.035939786143984</v>
+        <v>0.9877011088942642</v>
       </c>
       <c r="N13">
-        <v>1.013721615831795</v>
+        <v>1.002581492823346</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022823395013547</v>
+        <v>0.967392985083142</v>
       </c>
       <c r="D14">
-        <v>1.0300505484525</v>
+        <v>1.013397392626054</v>
       </c>
       <c r="E14">
-        <v>1.02358660892725</v>
+        <v>0.9796309673891709</v>
       </c>
       <c r="F14">
-        <v>1.032547684596378</v>
+        <v>0.9732459354774481</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033659006694192</v>
+        <v>1.03454789981043</v>
       </c>
       <c r="J14">
-        <v>1.029487625974263</v>
+        <v>0.9982258058452717</v>
       </c>
       <c r="K14">
-        <v>1.033643594154177</v>
+        <v>1.028087643959632</v>
       </c>
       <c r="L14">
-        <v>1.027204122073726</v>
+        <v>0.9949650042938647</v>
       </c>
       <c r="M14">
-        <v>1.036131368918891</v>
+        <v>0.9887083263085341</v>
       </c>
       <c r="N14">
-        <v>1.013765628790136</v>
+        <v>1.002823043462069</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022941312327472</v>
+        <v>0.9680490675673267</v>
       </c>
       <c r="D15">
-        <v>1.030107349209566</v>
+        <v>1.013703157390733</v>
       </c>
       <c r="E15">
-        <v>1.023686926180606</v>
+        <v>0.9801545628848463</v>
       </c>
       <c r="F15">
-        <v>1.03268580242568</v>
+        <v>0.9739708098760591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033684571202409</v>
+        <v>1.034725731665881</v>
       </c>
       <c r="J15">
-        <v>1.029567261612055</v>
+        <v>0.9986546611366288</v>
       </c>
       <c r="K15">
-        <v>1.03368055425237</v>
+        <v>1.028300679263647</v>
       </c>
       <c r="L15">
-        <v>1.027284288274062</v>
+        <v>0.9953866262120095</v>
       </c>
       <c r="M15">
-        <v>1.036249399521927</v>
+        <v>0.9893261140049219</v>
       </c>
       <c r="N15">
-        <v>1.013792737976006</v>
+        <v>1.002971191395985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023627592307575</v>
+        <v>0.9718243604106561</v>
       </c>
       <c r="D16">
-        <v>1.030438007230005</v>
+        <v>1.015467089701702</v>
       </c>
       <c r="E16">
-        <v>1.024270909349456</v>
+        <v>0.9831708555281989</v>
       </c>
       <c r="F16">
-        <v>1.03348975639724</v>
+        <v>0.9781427841455149</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033832923248384</v>
+        <v>1.035746367611927</v>
       </c>
       <c r="J16">
-        <v>1.03003053762262</v>
+        <v>1.001121716384316</v>
       </c>
       <c r="K16">
-        <v>1.033895460649924</v>
+        <v>1.029526711325813</v>
       </c>
       <c r="L16">
-        <v>1.027750752736747</v>
+        <v>0.997813168521216</v>
       </c>
       <c r="M16">
-        <v>1.036936239368373</v>
+        <v>0.9928803430193892</v>
       </c>
       <c r="N16">
-        <v>1.013950393156813</v>
+        <v>1.003823335129823</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024058034934453</v>
+        <v>0.9741554638309221</v>
       </c>
       <c r="D17">
-        <v>1.030645466150968</v>
+        <v>1.016560019527934</v>
       </c>
       <c r="E17">
-        <v>1.024637309169413</v>
+        <v>0.9850361777171681</v>
       </c>
       <c r="F17">
-        <v>1.033994100042937</v>
+        <v>0.9807195866048541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033925589140774</v>
+        <v>1.03637417835558</v>
       </c>
       <c r="J17">
-        <v>1.030320929506277</v>
+        <v>1.002644363123339</v>
       </c>
       <c r="K17">
-        <v>1.034030073947544</v>
+        <v>1.030283790830141</v>
       </c>
       <c r="L17">
-        <v>1.028043232907768</v>
+        <v>0.9993117645639231</v>
       </c>
       <c r="M17">
-        <v>1.037366945897422</v>
+        <v>0.9950743329347455</v>
       </c>
       <c r="N17">
-        <v>1.014049169922451</v>
+        <v>1.004349173867664</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024309089907024</v>
+        <v>0.9755022584901434</v>
       </c>
       <c r="D18">
-        <v>1.030766489624822</v>
+        <v>1.017192755840287</v>
       </c>
       <c r="E18">
-        <v>1.024851053890691</v>
+        <v>0.9861148701649399</v>
       </c>
       <c r="F18">
-        <v>1.034288291938128</v>
+        <v>0.9822086208943801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033979498529485</v>
+        <v>1.036736011063454</v>
       </c>
       <c r="J18">
-        <v>1.030490235100457</v>
+        <v>1.003523812213442</v>
       </c>
       <c r="K18">
-        <v>1.034108522331875</v>
+        <v>1.030721175396688</v>
       </c>
       <c r="L18">
-        <v>1.028213788320552</v>
+        <v>1.000177662079306</v>
       </c>
       <c r="M18">
-        <v>1.037618123488371</v>
+        <v>0.9963416900067835</v>
       </c>
       <c r="N18">
-        <v>1.014106742911021</v>
+        <v>1.00465284838418</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024394690675125</v>
+        <v>0.9759593338822407</v>
       </c>
       <c r="D19">
-        <v>1.030807758216657</v>
+        <v>1.01740770839592</v>
       </c>
       <c r="E19">
-        <v>1.024923940402183</v>
+        <v>0.9864811242271074</v>
       </c>
       <c r="F19">
-        <v>1.03438860668608</v>
+        <v>0.9827140194199855</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033997856312483</v>
+        <v>1.036858657655996</v>
       </c>
       <c r="J19">
-        <v>1.030547951218308</v>
+        <v>1.003822233933989</v>
       </c>
       <c r="K19">
-        <v>1.034135259439231</v>
+        <v>1.030869608656095</v>
       </c>
       <c r="L19">
-        <v>1.028271935975853</v>
+        <v>1.000471542656804</v>
       </c>
       <c r="M19">
-        <v>1.037703760769031</v>
+        <v>0.9967717685688204</v>
       </c>
       <c r="N19">
-        <v>1.014126366721021</v>
+        <v>1.004755886678934</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02401185406834</v>
+        <v>0.9739067024997196</v>
       </c>
       <c r="D20">
-        <v>1.030623206089314</v>
+        <v>1.016443252744321</v>
       </c>
       <c r="E20">
-        <v>1.02459799484595</v>
+        <v>0.9848370169589485</v>
       </c>
       <c r="F20">
-        <v>1.033939987023142</v>
+        <v>0.9804445762243282</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033915661557933</v>
+        <v>1.036307273514327</v>
       </c>
       <c r="J20">
-        <v>1.030289780975756</v>
+        <v>1.002481901972412</v>
       </c>
       <c r="K20">
-        <v>1.034015638376676</v>
+        <v>1.030203000929506</v>
       </c>
       <c r="L20">
-        <v>1.028011857037998</v>
+        <v>0.9991518342014346</v>
       </c>
       <c r="M20">
-        <v>1.037320739959015</v>
+        <v>0.9948402264193235</v>
       </c>
       <c r="N20">
-        <v>1.014038576437509</v>
+        <v>1.004293072652089</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022767036628513</v>
+        <v>0.9670786332232436</v>
       </c>
       <c r="D21">
-        <v>1.030023402004677</v>
+        <v>1.013250972217438</v>
       </c>
       <c r="E21">
-        <v>1.023538664867433</v>
+        <v>0.979380155988108</v>
       </c>
       <c r="F21">
-        <v>1.032481673287076</v>
+        <v>0.9728986374003673</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033646780525663</v>
+        <v>1.03446264776748</v>
       </c>
       <c r="J21">
-        <v>1.029449560650131</v>
+        <v>0.998020314553379</v>
       </c>
       <c r="K21">
-        <v>1.033625925584245</v>
+        <v>1.027985575651566</v>
       </c>
       <c r="L21">
-        <v>1.027165804945861</v>
+        <v>0.9947629987131399</v>
       </c>
       <c r="M21">
-        <v>1.03607495462575</v>
+        <v>0.9884123101876386</v>
       </c>
       <c r="N21">
-        <v>1.013752669873181</v>
+        <v>1.002752054920078</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021984226363776</v>
+        <v>0.9626594092691995</v>
       </c>
       <c r="D22">
-        <v>1.029646434523774</v>
+        <v>1.011198235452839</v>
       </c>
       <c r="E22">
-        <v>1.022872888579524</v>
+        <v>0.9758583989196166</v>
       </c>
       <c r="F22">
-        <v>1.031564909277869</v>
+        <v>0.9680171733117895</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033476453425046</v>
+        <v>1.033261099808966</v>
       </c>
       <c r="J22">
-        <v>1.028920599841848</v>
+        <v>0.9951307370945172</v>
       </c>
       <c r="K22">
-        <v>1.033380276790101</v>
+        <v>1.026551070046448</v>
       </c>
       <c r="L22">
-        <v>1.026633464635589</v>
+        <v>0.9919237708568543</v>
       </c>
       <c r="M22">
-        <v>1.035291250600779</v>
+        <v>0.984250004364585</v>
       </c>
       <c r="N22">
-        <v>1.013572531464187</v>
+        <v>1.00175372975901</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022399223026378</v>
+        <v>0.9650145901868913</v>
       </c>
       <c r="D23">
-        <v>1.029846257250671</v>
+        <v>1.012290898431496</v>
       </c>
       <c r="E23">
-        <v>1.023225804065692</v>
+        <v>0.9777343079212938</v>
       </c>
       <c r="F23">
-        <v>1.032050891110472</v>
+        <v>0.970618491779487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033566867519242</v>
+        <v>1.033902148824118</v>
       </c>
       <c r="J23">
-        <v>1.029201076741743</v>
+        <v>0.9966708722312919</v>
       </c>
       <c r="K23">
-        <v>1.033510558562943</v>
+        <v>1.027315474388994</v>
       </c>
       <c r="L23">
-        <v>1.026915705801908</v>
+        <v>0.993436761870118</v>
       </c>
       <c r="M23">
-        <v>1.03570674824871</v>
+        <v>0.9864684591664578</v>
       </c>
       <c r="N23">
-        <v>1.01366806207386</v>
+        <v>1.002285855231563</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024032721259619</v>
+        <v>0.9740191467929856</v>
       </c>
       <c r="D24">
-        <v>1.030633264403055</v>
+        <v>1.016496029280973</v>
       </c>
       <c r="E24">
-        <v>1.024615759203843</v>
+        <v>0.984927037857483</v>
       </c>
       <c r="F24">
-        <v>1.033964438315073</v>
+        <v>0.9805688846344545</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033920147841074</v>
+        <v>1.036337518375576</v>
       </c>
       <c r="J24">
-        <v>1.030303855887657</v>
+        <v>1.002555337947844</v>
       </c>
       <c r="K24">
-        <v>1.034022161403837</v>
+        <v>1.030239519383929</v>
       </c>
       <c r="L24">
-        <v>1.028026034576632</v>
+        <v>0.9992241251524352</v>
       </c>
       <c r="M24">
-        <v>1.037341618576026</v>
+        <v>0.9949460471733436</v>
       </c>
       <c r="N24">
-        <v>1.014043363306536</v>
+        <v>1.004318431744279</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025927724264322</v>
+        <v>0.9839664533011483</v>
       </c>
       <c r="D25">
-        <v>1.031547173799682</v>
+        <v>1.021190632752365</v>
       </c>
       <c r="E25">
-        <v>1.026229899273417</v>
+        <v>0.9929110446463192</v>
       </c>
       <c r="F25">
-        <v>1.036185669425935</v>
+        <v>0.9915721838072198</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034324576556522</v>
+        <v>1.038993656197927</v>
       </c>
       <c r="J25">
-        <v>1.031580626776469</v>
+        <v>1.009045726276079</v>
       </c>
       <c r="K25">
-        <v>1.03461312876387</v>
+        <v>1.033468662296137</v>
       </c>
       <c r="L25">
-        <v>1.029312811553763</v>
+        <v>1.005620413426984</v>
       </c>
       <c r="M25">
-        <v>1.03923698715324</v>
+        <v>1.004302754991686</v>
       </c>
       <c r="N25">
-        <v>1.014477239036516</v>
+        <v>1.006558766565413</v>
       </c>
     </row>
   </sheetData>
